--- a/data/long_razon/P19_2-Urba-long_razon.xlsx
+++ b/data/long_razon/P19_2-Urba-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-23,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>30,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-29,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>55,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-26,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>42,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-41,86; 0,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 72,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-23,17; 46,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-44,67; -11,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,14; 97,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 42,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-39,18; -14,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,29; 68,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 33,12</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-21,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-13,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>37,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-5,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-17,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>29,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-44,36; 5,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 67,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,67; 51,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-33,8; 11,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,87; 88,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-26,38; 20,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-32,65; -0,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,91; 63,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-15,85; 22,56</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-51,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>88,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>74,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-27,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>82,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-74,65; -16,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 285,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-35,83; 90,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-31,97; 100,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 208,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,49; 96,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-54,01; 7,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,43; 191,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-23,65; 60,65</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-27,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>33,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-19,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>49,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-23,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>41,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1144,82 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-40,77; -11,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,76; 61,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,1; 31,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,23; -4,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,86; 79,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 26,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,44; -13,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,48; 63,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 21,99</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P19_2-Urba-long_razon.xlsx
+++ b/data/long_razon/P19_2-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.2182755192261783</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.3761421937920385</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.06293658202146267</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.327031196829807</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.2802122005993544</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.6019883426488126</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.1443733482409139</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.5677351362760893</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.2521704068684841</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.4846511873977889</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.1080127987826838</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.4408207662793769</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.4023335166081254</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.004541013411651461</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.2253559984672577</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.2190318206799359</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.4331523017536827</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.2713474976091324</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.06862065843746343</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>0.189068833493657</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.3696529619355551</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>0.2076536434863638</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.05361606521906384</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>0.02659607589898578</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.01606818243640379</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.8467260644015705</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.4377832098965944</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.8911006516448534</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-0.1048417515222924</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.025900834640952</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.4338352946962278</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>1.110888902405408</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>-0.1133784607048336</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.7766571642396005</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.3612403162779523</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.7912015468444139</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.2451635628056308</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.2544566837526347</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.09404154469981897</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.2795880636917392</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.1265167180995966</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.4083635574727237</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.06653690883582804</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.1575450707112822</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.1845364852497417</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.3296429237464383</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.00545057327597618</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.212944831324126</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.4605457353322194</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.1350971122193924</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.1969213987591805</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.2448127696153785</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.3433511031717864</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>0.05752993085192127</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.2671048356530644</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.1163473530640506</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.3204039655190588</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>0.05882506574626031</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.1728738939966742</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.05305461442921833</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-0.007877689723821484</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.7202483240780775</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.4580507140524365</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.9095136073565032</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.132970992304951</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.919144280949002</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.1790165806827836</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.5409263753274073</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>-0.01568032978831096</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.6395245109363107</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.2119714024067591</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.5653030226804389</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,137 +931,269 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.5731340124528291</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.028300855079676</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.04747995558755073</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.20547274977053</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.1398415292799208</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.7027450243921134</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.1867988166429509</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.2581117473021018</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.3314262542754031</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.8816425272844751</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.1102054677403993</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.2015818131482675</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.771710202527621</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.03042584604090757</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.3443078822011841</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.09666365088129021</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.3224447559557054</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.03395089727573781</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.2704167051440559</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.6213478237359491</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.5628187029398963</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>0.1705002645284683</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.2321852662973099</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.2795498919680861</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-0.2250050227168493</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.935995586593879</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.8014523136870203</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>4.63078566537027</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.8899796169843811</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>2.140122363618032</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.9415510264901094</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.3426340617362999</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>-0.02144951008596779</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>1.828097916354716</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.5981259999909863</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>1.048508347778171</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.2909001011329946</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.396470196003653</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.07301362427267148</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.3708898844043322</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.1839954688848477</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.5301213172509198</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.06143493198875181</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.2849986079651342</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.2368038754722528</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.4607236877907222</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.06675587949355392</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.3258652822392332</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.4140463855590057</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.1436416657906814</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.124954779697895</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.03899211044592689</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.3003374311781027</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.2908074304612452</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.09858650422319941</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>0.05628615285941304</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.3297795423025862</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0.2720024747150682</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.05852284733398059</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.09420041894634718</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-0.1492326846391285</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.749131364075436</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.3118595341924563</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.7579506988892578</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>-0.0320562066780055</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.8368355301449066</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.2269651221162039</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.5569618835394071</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>-0.1339548235238469</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.6789598572375712</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.2176796705286947</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.5608920488048749</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1212,14 +1201,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
